--- a/output/countedArtistsList.xlsx
+++ b/output/countedArtistsList.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,6 +365,26 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ArtisttoLowercase</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TitletoLowercase</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Count</t>
         </is>
       </c>
@@ -372,711 +392,1989 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2hollis</t>
-        </is>
-      </c>
-      <c r="B2">
+          <t>Parannoul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sky Hundred</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>parannoul</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sky hundred</t>
+        </is>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Addison Rae</t>
-        </is>
-      </c>
-      <c r="B3">
+          <t>J.P.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bad Bitty</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>jp</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>bad bitty</t>
+        </is>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Adeline Hotel</t>
-        </is>
-      </c>
-      <c r="B4">
+          <t>DJ Sabrina The Teenage DJ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dj sabrina the teenage dj</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>hex</t>
+        </is>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Adrianne Lenker</t>
-        </is>
-      </c>
-      <c r="B5">
+          <t>The Marías</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Submarine</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>the marias</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>submarine</t>
+        </is>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Amyl and the Sniffers</t>
-        </is>
-      </c>
-      <c r="B6">
+          <t>MJ Nebreda, Danny From Miami, Danny Daze</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Con Cariño</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>mj nebreda danny from miami danny daze</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>con cariño</t>
+        </is>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Autumn Rhythm</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>1</v>
+          <t>The Maria's</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Submarine</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>the marias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>submarine</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bassvictim</t>
-        </is>
-      </c>
-      <c r="B8">
+          <t>Otomekaiga</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kyoukai</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>otomekaiga</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>kyoukai</t>
+        </is>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Billie Eilish</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>1</v>
+          <t>Adrianne Lenker</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bright Future</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>adrianne lenker</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>bright future</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bladee</t>
-        </is>
-      </c>
-      <c r="B10">
+          <t>JPEGMAFIA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>I LAY DOWN MY LIFE FOR YOU</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>jpegmafia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>i lay down my life for you</t>
+        </is>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bladee, Ecco 2K, Thaiboy Digital</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>1</v>
+          <t>Bladee</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cold Visions</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>bladee</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cold visions</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bring Me The Horizon</t>
-        </is>
-      </c>
-      <c r="B12">
+          <t>Gawshock</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cool Drink</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>gawshock</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>cool drink</t>
+        </is>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Caroline Polacheck</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>1</v>
+          <t>Fontaines D.C.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Starburster</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>fontaines dc</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>starburster</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Caroline Polachek</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>1</v>
+          <t>Tyler the Creator</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CHROMAKOPIA</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>tyler the creator</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>chromakopia</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Certified Trapper</t>
-        </is>
-      </c>
-      <c r="B15">
+          <t>NxWorries</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Why Lawd?</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>nxworries</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>why lawd</t>
+        </is>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Charli XCX</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>2</v>
+          <t>Porter Robinson</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SMILE! :D</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>porter robinson</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>smile d</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Charli xcx</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>3</v>
+          <t>Magdalena Bay</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Imaginal Disk</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>magdalena bay</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>imaginal disk</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chief Keef</t>
-        </is>
-      </c>
-      <c r="B18">
+          <t>Oklou</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Choke Enough</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>oklou</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>choke enough</t>
+        </is>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cigarettes After Sex</t>
-        </is>
-      </c>
-      <c r="B19">
+          <t>Lizzy McAlpine</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Older (and Wiser)</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>lizzy mcalpine</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>older and wiser</t>
+        </is>
+      </c>
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Clairo</t>
-        </is>
-      </c>
-      <c r="B20">
+          <t>Autumn Rhythm</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nothing Gold</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>autumn rhythm</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>nothing gold</t>
+        </is>
+      </c>
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Corey Lingo</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>2</v>
+          <t>Joey Valence &amp; Brae</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NO HANDS</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>joey valence  brae</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>no hands</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Crizin da Z.O.</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>1</v>
+          <t>Adrianne Lenker</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bright Future</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>adrianne lenker</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>bright future</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DJ Sabrina The Teenage DJ</t>
-        </is>
-      </c>
-      <c r="B23">
+          <t>Fakemink</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wild One</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>fakemink</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>wild one</t>
+        </is>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Damien Jurado</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>1</v>
+          <t>Stoneyard</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Twenty Ft. Tall</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>stoneyard</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>twenty ft tall</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Declan McKenna</t>
-        </is>
-      </c>
-      <c r="B25">
+          <t>Fontaines D.C.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Favourite</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>fontaines dc</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>favourite</t>
+        </is>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Denzel Curry</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>1</v>
+          <t>Kendrick Lamar</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GNX</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>kendrick lamar</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>gnx</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Doechii</t>
-        </is>
-      </c>
-      <c r="B27">
+          <t>Chief Keef</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Almighty So 2</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>chief keef</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>almighty so 2</t>
+        </is>
+      </c>
+      <c r="F27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ESP</t>
-        </is>
-      </c>
-      <c r="B28">
+          <t>Kali Uchis</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ORQUÍDEAS</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>kali uchis</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>orquídeas</t>
+        </is>
+      </c>
+      <c r="F28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Empire of the Sun</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>2</v>
+          <t>MICHELLE</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Songs About You Specifically</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>michelle</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>songs about you specifically</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fakemink</t>
-        </is>
-      </c>
-      <c r="B30">
+          <t>NEW YORK</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Rapstar*</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>new york</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>rapstar</t>
+        </is>
+      </c>
+      <c r="F30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Father John Misty</t>
-        </is>
-      </c>
-      <c r="B31">
+          <t>Fcukers</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Baggy$$</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>fcukers</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>baggy$$</t>
+        </is>
+      </c>
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fcukers</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>1</v>
+          <t>Tyler, the Creator</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CHROMAKOPIA</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>tyler the creator</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>chromakopia</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fimiguerrero, Len &amp; Lancey Foux</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>1</v>
+          <t>Charli xcx</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BRAT</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>charli xcx</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>brat</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fontaines D.C.</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>2</v>
+          <t>tomcbumpz</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GOOD LISTENER</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>tomcbumpz</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>good listener</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Four Tet</t>
-        </is>
-      </c>
-      <c r="B35">
+          <t>Nala Sinephro</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Continuum 1</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>nala sinephro</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>continuum 1</t>
+        </is>
+      </c>
+      <c r="F35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GG12</t>
-        </is>
-      </c>
-      <c r="B36">
+          <t>MJ Lenderman</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>She's Leaving You</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>mj lenderman</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>shes leaving you</t>
+        </is>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gawshock</t>
-        </is>
-      </c>
-      <c r="B37">
+          <t>Mdou Moctar</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Funeral for Justice</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>0.25</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>mdou moctar</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>funeral for justice</t>
+        </is>
+      </c>
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ginger Root</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>1</v>
+          <t>2hollis</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Boy</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>0.25</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2hollis</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>boy</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gordie Greep</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>1</v>
+          <t>Charli xcx</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Brat and it's completely different but also still brat</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>0.25</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>charli xcx</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>brat</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Gucci Mane</t>
-        </is>
-      </c>
-      <c r="B40">
+          <t>Sarah Kinsley</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Escaper</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>0.25</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>sarah kinsley</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>escaper</t>
+        </is>
+      </c>
+      <c r="F40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hinds</t>
-        </is>
-      </c>
-      <c r="B41">
+          <t>Bassvictim</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Basspunk</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>0.25</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>bassvictim</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>basspunk</t>
+        </is>
+      </c>
+      <c r="F41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IDLES</t>
-        </is>
-      </c>
-      <c r="B42">
+          <t>Molly Lewis</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>On The Lips</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>0.25</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>molly lewis</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>on the lips</t>
+        </is>
+      </c>
+      <c r="F42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Iglooghost</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>1</v>
+          <t>MJ Lenderman</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Manning Fireworks</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>0.25</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>mj lenderman</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>manning fireworks</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>J.P.</t>
-        </is>
-      </c>
-      <c r="B44">
+          <t>Damien Jurado</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Far Out To Where We Were Then: The Maraqopa Demos</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>0.25</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>damien jurado</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>far out to where we were then the maraqopa demos</t>
+        </is>
+      </c>
+      <c r="F44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>JPEGMAFIA</t>
-        </is>
-      </c>
-      <c r="B45">
+          <t>GG12</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NIRVANA_RMX</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>0.25</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>gg12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>nirvanarmx</t>
+        </is>
+      </c>
+      <c r="F45">
         <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Joey Valence &amp; Brae</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>1</v>
+          <t>Stoneyard</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Be Strangers</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>0.25</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>stoneyard</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>be strangers</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jooyoung</t>
-        </is>
-      </c>
-      <c r="B47">
+          <t>Waxahatchee, MJ Lenderman</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Right Back to It</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>0.25</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>waxahatchee mj lenderman</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>right back to it</t>
+        </is>
+      </c>
+      <c r="F47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kali Uchis</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>1</v>
+          <t>JPEGMAFIA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>I LAY DOWN MY LIFE FOR YOU</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>0.2</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>jpegmafia</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>i lay down my life for you</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kendrick Lamar</t>
-        </is>
-      </c>
-      <c r="B49">
+          <t>Corey Lingo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>For What It's Worth</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>0.2</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>corey lingo</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>for what its worth</t>
+        </is>
+      </c>
+      <c r="F49">
         <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kim Frasier</t>
-        </is>
-      </c>
-      <c r="B50">
+          <t>Bring Me The Horizon</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>POST HUMAN: NeX GEn</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>0.2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>bring me the horizon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>post human nex gen</t>
+        </is>
+      </c>
+      <c r="F50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kiryano</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>1</v>
+          <t>Charli xcx</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>brat</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>0.2</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>charli xcx</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>brat</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lizzy McAlpine</t>
-        </is>
-      </c>
-      <c r="B52">
+          <t>Addison Rae</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Diet Pepsi</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>addison rae</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>diet pepsi</t>
+        </is>
+      </c>
+      <c r="F52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lucki</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>1</v>
+          <t>Magdalena Bay</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Imaginal Disk</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>0.2</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>magdalena bay</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>imaginal disk</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MICHELLE</t>
-        </is>
-      </c>
-      <c r="B54">
+          <t>Hinds</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VIVA HINDS</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>0.2</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>hinds</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>viva hinds</t>
+        </is>
+      </c>
+      <c r="F54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MIKE</t>
-        </is>
-      </c>
-      <c r="B55">
-        <v>1</v>
+          <t>GG12</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GG_BLENDS2</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>0.2</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>gg12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ggblends2</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MJ Lenderman</t>
-        </is>
-      </c>
-      <c r="B56">
-        <v>2</v>
+          <t>toe</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>LONELINESS WILL SHINE</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>0.2</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>toe</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>loneliness will shine</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MJ Nebreda, Danny From Miami, Danny Daze</t>
-        </is>
-      </c>
-      <c r="B57">
+          <t>The Cure</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Alone</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>0.2</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>the cure</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>alone</t>
+        </is>
+      </c>
+      <c r="F57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Magdalena Bay</t>
-        </is>
-      </c>
-      <c r="B58">
-        <v>2</v>
+          <t>MIKE</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Pinball</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>mike</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>pinball</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mannequin Pussy</t>
-        </is>
-      </c>
-      <c r="B59">
+          <t>Fimiguerrero, Len &amp; Lancey Foux</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conglomerate</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>fimiguerrero len  lancey foux</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>conglomerate</t>
+        </is>
+      </c>
+      <c r="F59">
         <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Mdou Moctar</t>
-        </is>
-      </c>
-      <c r="B60">
+          <t>death's dynamic shroud &amp; galen tipton</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>You Like Music</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>deaths dynamic shroud  galen tipton</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>you like music</t>
+        </is>
+      </c>
+      <c r="F60">
         <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mk.Gee</t>
-        </is>
-      </c>
-      <c r="B61">
+          <t>Nia Archives</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Silence Is Loud</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>nia archives</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>silence is loud</t>
+        </is>
+      </c>
+      <c r="F61">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Mk.gee</t>
-        </is>
-      </c>
-      <c r="B62">
-        <v>3</v>
+          <t>Cigarettes After Sex</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>X’s</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>cigarettes after sex</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>xs</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Molly Lewis</t>
-        </is>
-      </c>
-      <c r="B63">
+          <t>IDLES</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TANGK</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>idles</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>tangk</t>
+        </is>
+      </c>
+      <c r="F63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Mount Eerie</t>
-        </is>
-      </c>
-      <c r="B64">
-        <v>1</v>
+          <t>Charli XCX</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Brat and it's completely different but also still brat</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>charli xcx</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>brat</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NEW YORK</t>
-        </is>
-      </c>
-      <c r="B65">
+          <t>Tacoma Radar</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>It's Getting Dark</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>tacoma radar</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>its getting dark</t>
+        </is>
+      </c>
+      <c r="F65">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nala Sinephro</t>
-        </is>
-      </c>
-      <c r="B66">
-        <v>1</v>
+          <t>Empire of the Sun</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Cherry Blossom</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>empire of the sun</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>cherry blossom</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NewJeans</t>
-        </is>
-      </c>
-      <c r="B67">
+          <t>beabadoobee</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>This Is How Tomorrow Moves</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>beabadoobee</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>this is how tomorrow moves</t>
+        </is>
+      </c>
+      <c r="F67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nia Archives</t>
-        </is>
-      </c>
-      <c r="B68">
+          <t>Crizin da Z.O.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Acelero</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>crizin da zo</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>acelero</t>
+        </is>
+      </c>
+      <c r="F68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NxWorries</t>
-        </is>
-      </c>
-      <c r="B69">
-        <v>1</v>
+          <t>Caroline Polachek</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Desire, I Want To Turn Into You (Everasking Edition)</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>caroline polachek</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>desire i want to turn into you everasking edition</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Oklou</t>
-        </is>
-      </c>
-      <c r="B70">
-        <v>1</v>
+          <t>Caroline Polacheck</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Desire, I Want To Turn Into You: Everasking Edition</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>caroline polacheck</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>desire i want to turn into you everasking edition</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Otomekaiga</t>
-        </is>
-      </c>
-      <c r="B71">
+          <t>Clairo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Charm</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>clairo</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>charm</t>
+        </is>
+      </c>
+      <c r="F71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Parannoul</t>
-        </is>
-      </c>
-      <c r="B72">
-        <v>2</v>
+          <t>Doechii</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Alligator Bites Never Heal</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>doechii</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>alligator bites never heal</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1085,37 +2383,109 @@
           <t>Pluko</t>
         </is>
       </c>
-      <c r="B73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Bleach [Hi</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>pluko</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>bleach hi</t>
+        </is>
+      </c>
+      <c r="F73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Poppy</t>
-        </is>
-      </c>
-      <c r="B74">
-        <v>1</v>
+          <t>Empire of the Sun</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Happy Like You</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>empire of the sun</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>happy like you</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Porter Robinson</t>
-        </is>
-      </c>
-      <c r="B75">
+          <t>Kim Frasier</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Indio</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>0.125</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>kim frasier</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>indio</t>
+        </is>
+      </c>
+      <c r="F75">
         <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rosalia, Ralphie Choo</t>
-        </is>
-      </c>
-      <c r="B76">
+          <t>Mannequin Pussy</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>I Got Heaven</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>0.125</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>mannequin pussy</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>i got heaven</t>
+        </is>
+      </c>
+      <c r="F76">
         <v>1</v>
       </c>
     </row>
@@ -1125,277 +2495,1257 @@
           <t>SPIRIT OF THE BEEHIVE</t>
         </is>
       </c>
-      <c r="B77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>YOU’LL HAVE TO LOSE SOMETHING</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>0.125</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>spirit of the beehive</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>youll have to lose something</t>
+        </is>
+      </c>
+      <c r="F77">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SUMIN &amp; Slom</t>
-        </is>
-      </c>
-      <c r="B78">
+          <t>The Lemon Twigs</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>A Dream is All we Know</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>0.125</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>the lemon twigs</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>a dream is all we know</t>
+        </is>
+      </c>
+      <c r="F78">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SahBabii</t>
-        </is>
-      </c>
-      <c r="B79">
+          <t>xaviersobased</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>with 2 (hosted by d9lton)</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>0.125</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>xaviersobased</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>with 2 hosted by d9lton</t>
+        </is>
+      </c>
+      <c r="F79">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sarah Kinsley</t>
-        </is>
-      </c>
-      <c r="B80">
-        <v>1</v>
+          <t>Declan McKenna</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Champagne</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>0.125</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>declan mckenna</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>champagne</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sematary</t>
-        </is>
-      </c>
-      <c r="B81">
+          <t>Ginger Root</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SHINBANGUMI</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ginger root</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>shinbangumi</t>
+        </is>
+      </c>
+      <c r="F81">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SgLilyy</t>
-        </is>
-      </c>
-      <c r="B82">
+          <t>Iglooghost</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Tidal Memory Exo</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>iglooghost</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>tidal memory exo</t>
+        </is>
+      </c>
+      <c r="F82">
         <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Stoneyard</t>
-        </is>
-      </c>
-      <c r="B83">
+          <t>2hollis</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>boy</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2hollis</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>boy</t>
+        </is>
+      </c>
+      <c r="F83">
         <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Swapa</t>
-        </is>
-      </c>
-      <c r="B84">
+          <t>Rosalia, Ralphie Choo</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Omega (feat.Ralphine Choo)</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>rosalia ralphie choo</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>omega featralphine choo</t>
+        </is>
+      </c>
+      <c r="F84">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Swoopy &amp; pradaaslife</t>
-        </is>
-      </c>
-      <c r="B85">
+          <t>Waxahatchee (ft. MJ Lenderman)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Right Back to it</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>waxahatchee ft mj lenderman</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>right back to it</t>
+        </is>
+      </c>
+      <c r="F85">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tacoma Radar</t>
-        </is>
-      </c>
-      <c r="B86">
-        <v>1</v>
+          <t>Corey Lingo</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>For What It's Worth</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>corey lingo</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>for what its worth</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>The Cure</t>
-        </is>
-      </c>
-      <c r="B87">
-        <v>1</v>
+          <t>Declan McKenna</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>That's Life</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>declan mckenna</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>thats life</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>The Lemon Twigs</t>
-        </is>
-      </c>
-      <c r="B88">
-        <v>1</v>
+          <t>Charli XCX</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Brat</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>0.1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>charli xcx</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>brat</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>The Maria's</t>
-        </is>
-      </c>
-      <c r="B89">
+          <t>Poppy</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Negative Spaces</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>0.1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>poppy</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>negative spaces</t>
+        </is>
+      </c>
+      <c r="F89">
         <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The Marías</t>
-        </is>
-      </c>
-      <c r="B90">
+          <t>Bladee, Ecco 2K, Thaiboy Digital</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TL;DR</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>0.1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>bladee ecco 2k thaiboy digital</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>tldr</t>
+        </is>
+      </c>
+      <c r="F90">
         <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Twenty One Pilots</t>
-        </is>
-      </c>
-      <c r="B91">
-        <v>1</v>
+          <t>Mk.Gee</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Two Star and the Dream Police</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>0.1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>mkgee</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>two star and the dream police</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Tyler the Creator</t>
-        </is>
-      </c>
-      <c r="B92">
+          <t>SahBabii</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Saaheem</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>0.1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>sahbabii</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>saaheem</t>
+        </is>
+      </c>
+      <c r="F92">
         <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Tyler, the Creator</t>
-        </is>
-      </c>
-      <c r="B93">
+          <t>Father John Misty</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>I Guess Time Just Makes Fools of Us All</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>0.1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>father john misty</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>i guess time just makes fools of us all</t>
+        </is>
+      </c>
+      <c r="F93">
         <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Wavedash</t>
-        </is>
-      </c>
-      <c r="B94">
+          <t>SUMIN &amp; Slom</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MINISERIES 2</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>sumin  slom</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>miniseries 2</t>
+        </is>
+      </c>
+      <c r="F94">
         <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Waxahatchee (ft. MJ Lenderman)</t>
-        </is>
-      </c>
-      <c r="B95">
+          <t>NewJeans</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Supernatural</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>newjeans</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>supernatural</t>
+        </is>
+      </c>
+      <c r="F95">
         <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Waxahatchee, MJ Lenderman</t>
-        </is>
-      </c>
-      <c r="B96">
+          <t>Mount Eerie</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Night Palace</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>mount eerie</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>night palace</t>
+        </is>
+      </c>
+      <c r="F96">
         <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>YT</t>
-        </is>
-      </c>
-      <c r="B97">
+          <t>Lucki</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Gemini!</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>lucki</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="F97">
         <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Yeat</t>
-        </is>
-      </c>
-      <c r="B98">
+          <t>Twenty One Pilots</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>The Line</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>twenty one pilots</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>the line</t>
+        </is>
+      </c>
+      <c r="F98">
         <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>beabadoobee</t>
-        </is>
-      </c>
-      <c r="B99">
+          <t>Denzel Curry</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>King of the Mischievous South Vol. 2</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>denzel curry</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>king of the mischievous south vol 2</t>
+        </is>
+      </c>
+      <c r="F99">
         <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>death's dynamic shroud &amp; galen tipton</t>
-        </is>
-      </c>
-      <c r="B100">
+          <t>Gordie Greep</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>The New Sound</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>gordie greep</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>the new sound</t>
+        </is>
+      </c>
+      <c r="F100">
         <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>smokedope2016</t>
-        </is>
-      </c>
-      <c r="B101">
-        <v>1</v>
+          <t>Mk.gee</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Two Star &amp; The Dream Police</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>mkgee</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>two star and the dream police</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>toe</t>
-        </is>
-      </c>
-      <c r="B102">
+          <t>Billie Eilish</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CHIHIRO</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>billie eilish</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>chihiro</t>
+        </is>
+      </c>
+      <c r="F102">
         <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>tomcbumpz</t>
-        </is>
-      </c>
-      <c r="B103">
+          <t>Gucci Mane</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Greatest of All Trappers (Gangsta Grillz Edition)</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>gucci mane</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>greatest of all trappers gangsta grillz edition</t>
+        </is>
+      </c>
+      <c r="F103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>xaviersobased</t>
-        </is>
-      </c>
-      <c r="B104">
+          <t>Amyl and the Sniffers</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Cartoon Darkness</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>amyl and the sniffers</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>cartoon darkness</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Mk.gee</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Rockman</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>mkgee</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>rockman</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Adeline Hotel</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Whodunnit</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>adeline hotel</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>whodunnit</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Yeat</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2093</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>yeat</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2093</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Kendrick Lamar</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GNX</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>kendrick lamar</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>gnx</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Swapa</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Armageddon</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>swapa</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>armageddon</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Bladee</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Cold Visions</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>bladee</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>cold visions</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Wavedash</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Tempo</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>wavedash</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>tempo</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Four Tet</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>0.0625</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>four tet</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>three</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Promise</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>0.0625</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>esp</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>promise</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sematary</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Bloody Angel</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>sematary</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>bloody angel</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SgLilyy</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>rp privateserver</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>sglilyy</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>rp privateserver</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Parannoul</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sky Hundred</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>parannoul</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>sky hundred</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Swoopy &amp; pradaaslife</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Treasure Hunt 2</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>swoopy  pradaaslife</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>treasure hunt 2</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jooyoung</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Sphere</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>jooyoung</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>sphere</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Kiryano</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>senescence</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>kiryano</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>senescence</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Certified Trapper</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Trappernese</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>0.05</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>certified trapper</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>trappernese</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>YT</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Black &amp; Tan</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>0.05</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>yt</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>black and tan</t>
+        </is>
+      </c>
+      <c r="F121">
         <v>1</v>
       </c>
     </row>

--- a/output/countedArtistsList.xlsx
+++ b/output/countedArtistsList.xlsx
@@ -2309,7 +2309,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>caroline polacheck</t>
+          <t>caroline polachek</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">

--- a/output/countedArtistsList.xlsx
+++ b/output/countedArtistsList.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,36 +417,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parannoul</t>
+          <t>Playboi Carti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sky Hundred</t>
+          <t>MUSIC</t>
         </is>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>parannoul</t>
+          <t>playboi carti</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>sky hundred</t>
+          <t>music</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>parannoul</t>
+          <t>playboi carti</t>
         </is>
       </c>
       <c r="J2">
@@ -461,40 +461,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tyler the Creator</t>
+          <t>Pinkpantheress</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHROMAKOPIA</t>
+          <t>Fancy That</t>
         </is>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>0.85</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>tyler the creator</t>
+          <t>pinkpantheress</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>chromakopia</t>
+          <t>fancy that</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>tyler the creator</t>
+          <t>pinkpantheress</t>
         </is>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -505,36 +505,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kendrick Lamar</t>
+          <t>Oklou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GNX</t>
+          <t>Choke Enough</t>
         </is>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>0.7224999999999999</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>kendrick lamar</t>
+          <t>oklou</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>gnx</t>
+          <t>choke enough</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>kendrick lamar</t>
+          <t>oklou</t>
         </is>
       </c>
       <c r="J4">
@@ -549,36 +549,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mdou Moctar</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Funeral for Justice</t>
+          <t>Showbiz!</t>
         </is>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>0.6141249999999999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>mdou moctar</t>
+          <t>mike</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>funeral for justice</t>
+          <t>showbiz</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>mdou moctar</t>
+          <t>mike</t>
         </is>
       </c>
       <c r="J5">
@@ -593,36 +593,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JPEGMAFIA</t>
+          <t>Erika de Casier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>I LAY DOWN MY LIFE FOR YOU</t>
+          <t>Lifetime</t>
         </is>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>0.5220062499999999</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>jpegmafia</t>
+          <t>erika de casier</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>i lay down my life for you</t>
+          <t>lifetime</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>jpegmafia</t>
+          <t>erika de casier</t>
         </is>
       </c>
       <c r="J6">
@@ -637,36 +637,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIKE</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pinball</t>
+          <t>Two Lives</t>
         </is>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>0.4437053124999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>mike</t>
+          <t>wet</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>pinball</t>
+          <t>two lives</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>mike</t>
+          <t>wet</t>
         </is>
       </c>
       <c r="J7">
@@ -681,36 +681,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>beabadoobee</t>
+          <t>HiTech</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>This Is How Tomorrow Moves</t>
+          <t>HONEYPAQQ Vol. 1</t>
         </is>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0.3771495156249999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>beabadoobee</t>
+          <t>hitech</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>this is how tomorrow moves</t>
+          <t>honeypaqq vol 1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>beabadoobee</t>
+          <t>hitech</t>
         </is>
       </c>
       <c r="J8">
@@ -725,40 +725,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kim Frasier</t>
+          <t>Various Artists</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indio</t>
+          <t>Pinball II</t>
         </is>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0.3205770882812499</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>kim frasier</t>
+          <t>various artists</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>indio</t>
+          <t>pinball ii</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>kim frasier</t>
+          <t>various artists</t>
         </is>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -769,124 +769,124 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ginger Root</t>
+          <t>Various Artists</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SHINBANGUMI</t>
+          <t>Alfredo 2</t>
         </is>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>0.2724905250390625</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ginger root</t>
+          <t>various artists</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>shinbangumi</t>
+          <t>alfredo 2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ginger root</t>
+          <t>various artists</t>
         </is>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rank01</t>
+          <t>Rank10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>J.P.</t>
+          <t>Blood Orange</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Bad Bitty</t>
+          <t>Essex Honey</t>
         </is>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.2316169462832031</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>jp</t>
+          <t>blood orange</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>bad bitty</t>
+          <t>essex honey</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>jp</t>
+          <t>blood orange</t>
         </is>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rank02</t>
+          <t>Rank11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NxWorries</t>
+          <t>Earl Sweatshirt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Why Lawd?</t>
+          <t>Live Laugh Love</t>
         </is>
       </c>
       <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>19</v>
-      </c>
       <c r="F12">
-        <v>0.85</v>
+        <v>0.1968744043407226</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>nxworries</t>
+          <t>earl sweatshirt</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>why lawd</t>
+          <t>live laugh love</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>nxworries</t>
+          <t>earl sweatshirt</t>
         </is>
       </c>
       <c r="J12">
@@ -896,41 +896,41 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rank03</t>
+          <t>Rank12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chief Keef</t>
+          <t>Moribet</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Almighty So 2</t>
+          <t>so, ho hum</t>
         </is>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.7224999999999999</v>
+        <v>0.1673432436896142</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>chief keef</t>
+          <t>moribet</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>almighty so 2</t>
+          <t>so ho hum</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>chief keef</t>
+          <t>moribet</t>
         </is>
       </c>
       <c r="J13">
@@ -940,129 +940,129 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rank04</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2hollis</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Boy</t>
+          <t>Swag II</t>
         </is>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>0.6141249999999999</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2hollis</t>
+          <t>justin bieber</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>swag ii</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2hollis</t>
+          <t>justin bieber</t>
         </is>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rank05</t>
+          <t>Rank02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Corey Lingo</t>
+          <t>PARTYNEXTDOOR &amp; Drake</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>For What It's Worth</t>
+          <t>$ome $exy $ongs 4 U</t>
         </is>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>0.5220062499999999</v>
+        <v>0.85</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>corey lingo</t>
+          <t>partynextdoor  drake</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>for what its worth</t>
+          <t>$ome $exy $ongs 4 u</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>corey lingo</t>
+          <t>partynextdoor  drake</t>
         </is>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rank06</t>
+          <t>Rank03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fimiguerrero, Len &amp; Lancey Foux</t>
+          <t>Metro Boomin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Conglomerate</t>
+          <t>Metro Boomin Presents: A Futuristic Summa</t>
         </is>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>0.4437053124999999</v>
+        <v>0.7224999999999999</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>fimiguerrero len  lancey foux</t>
+          <t>metro boomin</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>conglomerate</t>
+          <t>metro boomin presents a futuristic summa</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>fimiguerrero len  lancey foux</t>
+          <t>metro boomin</t>
         </is>
       </c>
       <c r="J16">
@@ -1072,41 +1072,41 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rank07</t>
+          <t>Rank04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Crizin da Z.O.</t>
+          <t>Corey Lingo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Acelero</t>
+          <t>Safe 2 Say</t>
         </is>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>0.3771495156249999</v>
+        <v>0.6141249999999999</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>crizin da zo</t>
+          <t>corey lingo</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>acelero</t>
+          <t>safe 2 say</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>crizin da zo</t>
+          <t>corey lingo</t>
         </is>
       </c>
       <c r="J17">
@@ -1116,41 +1116,41 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Rank09</t>
+          <t>Rank05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Iglooghost</t>
+          <t>Bryson Tiller</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tidal Memory Exo</t>
+          <t>Solace &amp; the Vices</t>
         </is>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>0.2724905250390625</v>
+        <v>0.5220062499999999</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>iglooghost</t>
+          <t>bryson tiller</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>tidal memory exo</t>
+          <t>solace and the vices</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>iglooghost</t>
+          <t>bryson tiller</t>
         </is>
       </c>
       <c r="J18">
@@ -1160,85 +1160,85 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rank10</t>
+          <t>Rank06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Charli XCX</t>
+          <t>Saba &amp; No I.D.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brat</t>
+          <t>From the Private Collection of Saba and No ID</t>
         </is>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>0.2316169462832031</v>
+        <v>0.4437053124999999</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>charli xcx</t>
+          <t>saba  no id</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>brat</t>
+          <t>from the private collection of saba and no id</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>charli xcx</t>
+          <t>saba  no id</t>
         </is>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rank11</t>
+          <t>Rank07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SUMIN &amp; Slom</t>
+          <t>The Weeknd</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MINISERIES 2</t>
+          <t>Hurry Up Tomorrow</t>
         </is>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>0.1968744043407226</v>
+        <v>0.3771495156249999</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sumin  slom</t>
+          <t>the weeknd</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>miniseries 2</t>
+          <t>hurry up tomorrow</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sumin  slom</t>
+          <t>the weeknd</t>
         </is>
       </c>
       <c r="J20">
@@ -1248,41 +1248,41 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rank12</t>
+          <t>Rank08</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Denzel Curry</t>
+          <t>Yeat</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>King of the Mischievous South Vol. 2</t>
+          <t>Dangerous Summer</t>
         </is>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>0.1673432436896142</v>
+        <v>0.3205770882812499</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>denzel curry</t>
+          <t>yeat</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>king of the mischievous south vol 2</t>
+          <t>dangerous summer</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>denzel curry</t>
+          <t>yeat</t>
         </is>
       </c>
       <c r="J21">
@@ -1292,41 +1292,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rank13</t>
+          <t>Rank09</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gucci Mane</t>
+          <t>Daniel Caesar</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Greatest of All Trappers (Gangsta Grillz Edition)</t>
+          <t>Son of Spergy</t>
         </is>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>0.1422417571361721</v>
+        <v>0.2724905250390625</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>gucci mane</t>
+          <t>daniel caesar</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>greatest of all trappers gangsta grillz edition</t>
+          <t>son of spergy</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>gucci mane</t>
+          <t>daniel caesar</t>
         </is>
       </c>
       <c r="J22">
@@ -1336,41 +1336,41 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rank14</t>
+          <t>Rank10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Yeat</t>
+          <t>xaviersobased</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>Once More</t>
         </is>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.1209054935657463</v>
+        <v>0.2316169462832031</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>yeat</t>
+          <t>xaviersobased</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>once more</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>yeat</t>
+          <t>xaviersobased</t>
         </is>
       </c>
       <c r="J23">
@@ -1380,85 +1380,85 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rank15</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bladee</t>
+          <t>Battalia Franca</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cold Visions</t>
+          <t>reach</t>
         </is>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>0.1027696695308843</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>bladee</t>
+          <t>battalia franca</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cold visions</t>
+          <t>reach</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>bladee</t>
+          <t>battalia franca</t>
         </is>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rank16</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Four Tet</t>
+          <t>Puzzle</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Three</t>
+          <t>Damage Collection!</t>
         </is>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F25">
-        <v>0.08735421910125167</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>four tet</t>
+          <t>puzzle</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>damage collection</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>four tet</t>
+          <t>puzzle</t>
         </is>
       </c>
       <c r="J25">
@@ -1468,41 +1468,41 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rank 17</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sematary</t>
+          <t>Quadeca</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bloody Angel</t>
+          <t>Vanisher, Horizon Scraper</t>
         </is>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>0.07425108623606391</v>
+        <v>1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sematary</t>
+          <t>quadeca</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>bloody angel</t>
+          <t>vanisher horizon scraper</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sematary</t>
+          <t>quadeca</t>
         </is>
       </c>
       <c r="J26">
@@ -1512,85 +1512,85 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Rank18</t>
+          <t>Rank02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parannoul</t>
+          <t>Venna</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sky Hundred</t>
+          <t>Malik</t>
         </is>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>0.06311342330065432</v>
+        <v>0.85</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>parannoul</t>
+          <t>venna</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>sky hundred</t>
+          <t>malik</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>parannoul</t>
+          <t>venna</t>
         </is>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Rank19</t>
+          <t>Rank03</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jooyoung</t>
+          <t>PROFF</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sphere</t>
+          <t>Missing Places I've Never Been</t>
         </is>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>0.05364640980555618</v>
+        <v>0.7224999999999999</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>jooyoung</t>
+          <t>proff</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>sphere</t>
+          <t>missing places ive never been</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>jooyoung</t>
+          <t>proff</t>
         </is>
       </c>
       <c r="J28">
@@ -1600,41 +1600,41 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Rank20</t>
+          <t>Rank04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Certified Trapper</t>
+          <t>my better half</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Trappernese</t>
+          <t>mybetterhalf.</t>
         </is>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>0.04559944833472275</v>
+        <v>0.6141249999999999</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>certified trapper</t>
+          <t>my better half</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>trappernese</t>
+          <t>mybetterhalf</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>certified trapper</t>
+          <t>my better half</t>
         </is>
       </c>
       <c r="J29">
@@ -1649,40 +1649,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DJ Sabrina The Teenage DJ</t>
+          <t>Jane Remover</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hex</t>
+          <t>Revengeseekerz</t>
         </is>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>dj sabrina the teenage dj</t>
+          <t>jane remover</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>hex</t>
+          <t>revengeseekerz</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>dj sabrina the teenage dj</t>
+          <t>jane remover</t>
         </is>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1693,40 +1693,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Porter Robinson</t>
+          <t>Ninajirachi</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SMILE! :D</t>
+          <t>I Love My Computer</t>
         </is>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <v>0.85</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>porter robinson</t>
+          <t>ninajirachi</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>smile d</t>
+          <t>i love my computer</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>porter robinson</t>
+          <t>ninajirachi</t>
         </is>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1737,36 +1737,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kali Uchis</t>
+          <t>Frost Children</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ORQUÍDEAS</t>
+          <t>SISTER</t>
         </is>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>0.7224999999999999</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>kali uchis</t>
+          <t>frost children</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>orquídeas</t>
+          <t>sister</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>kali uchis</t>
+          <t>frost children</t>
         </is>
       </c>
       <c r="J32">
@@ -1781,40 +1781,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Charli xcx</t>
+          <t>Matt Maltese</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brat and it's completely different but also still brat</t>
+          <t>Hers</t>
         </is>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>0.6141249999999999</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>charli xcx</t>
+          <t>matt maltese</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>brat</t>
+          <t>hers</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>charli xcx</t>
+          <t>matt maltese</t>
         </is>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1825,36 +1825,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bring Me The Horizon</t>
+          <t>kmoe</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>POST HUMAN: NeX GEn</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>0.5220062499999999</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>bring me the horizon</t>
+          <t>kmoe</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>post human nex gen</t>
+          <t>k1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>bring me the horizon</t>
+          <t>kmoe</t>
         </is>
       </c>
       <c r="J34">
@@ -1869,36 +1869,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>death's dynamic shroud &amp; galen tipton</t>
+          <t>Sabrina Carpenter</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>You Like Music</t>
+          <t>Man's Best Friend</t>
         </is>
       </c>
       <c r="D35">
         <v>6</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F35">
         <v>0.4437053124999999</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>deaths dynamic shroud  galen tipton</t>
+          <t>sabrina carpenter</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>you like music</t>
+          <t>mans best friend</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>deaths dynamic shroud  galen tipton</t>
+          <t>sabrina carpenter</t>
         </is>
       </c>
       <c r="J35">
@@ -1913,40 +1913,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Caroline Polachek</t>
+          <t>Pinkpantheress</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Desire, I Want To Turn Into You (Everasking Edition)</t>
+          <t>Fancy That</t>
         </is>
       </c>
       <c r="D36">
         <v>7</v>
       </c>
       <c r="E36">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <v>0.3771495156249999</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>caroline polachek</t>
+          <t>pinkpantheress</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>desire i want to turn into you everasking edition</t>
+          <t>fancy that</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>caroline polachek</t>
+          <t>pinkpantheress</t>
         </is>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1957,36 +1957,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mannequin Pussy</t>
+          <t>Cowgirl Clue</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>I Got Heaven</t>
+          <t>Total Freedom</t>
         </is>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>0.3205770882812499</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>mannequin pussy</t>
+          <t>cowgirl clue</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>i got heaven</t>
+          <t>total freedom</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>mannequin pussy</t>
+          <t>cowgirl clue</t>
         </is>
       </c>
       <c r="J37">
@@ -1996,217 +1996,217 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Rank09</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2hollis</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>Skin and Bone</t>
         </is>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>12</v>
       </c>
       <c r="F38">
-        <v>0.2724905250390625</v>
+        <v>1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2hollis</t>
+          <t>rocco</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>skin and bone</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2hollis</t>
+          <t>rocco</t>
         </is>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Rank10</t>
+          <t>Rank02</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Poppy</t>
+          <t>keshi</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Negative Spaces</t>
+          <t>Requiem (Deluxe)</t>
         </is>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>0.2316169462832031</v>
+        <v>0.85</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>poppy</t>
+          <t>keshi</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>negative spaces</t>
+          <t>requiem deluxe</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>poppy</t>
+          <t>keshi</t>
         </is>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Rank01</t>
+          <t>Rank03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Marías</t>
+          <t>Bad Bunny</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>DeBÍ TiRAR MáS FOToS</t>
         </is>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.7224999999999999</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>the marias</t>
+          <t>bad bunny</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>submarine</t>
+          <t>debí tirar más fotos</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>the marias</t>
+          <t>bad bunny</t>
         </is>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Rank02</t>
+          <t>Rank04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Magdalena Bay</t>
+          <t>grentperez</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Imaginal Disk</t>
+          <t>Backflips in a Restaurant</t>
         </is>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F41">
-        <v>0.85</v>
+        <v>0.6141249999999999</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>magdalena bay</t>
+          <t>grentperez</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>imaginal disk</t>
+          <t>backflips in a restaurant</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>magdalena bay</t>
+          <t>grentperez</t>
         </is>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Rank03</t>
+          <t>Rank05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MICHELLE</t>
+          <t>Pritam, Arijit Singh, Jonita Gandhi</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Songs About You Specifically</t>
+          <t>What Jhumka ?</t>
         </is>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>0.7224999999999999</v>
+        <v>0.5220062499999999</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>michelle</t>
+          <t>pritam arijit singh jonita gandhi</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>songs about you specifically</t>
+          <t xml:space="preserve">what jhumka </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>michelle</t>
+          <t>pritam arijit singh jonita gandhi</t>
         </is>
       </c>
       <c r="J42">
@@ -2216,41 +2216,41 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Rank04</t>
+          <t>Rank06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sarah Kinsley</t>
+          <t>TWICE, Megan Thee Stallion</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Escaper</t>
+          <t>Strategy (feat. Megan Thee Stallion)</t>
         </is>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F43">
-        <v>0.6141249999999999</v>
+        <v>0.4437053124999999</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sarah kinsley</t>
+          <t>twice megan thee stallion</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>escaper</t>
+          <t>strategy feat megan thee stallion</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sarah kinsley</t>
+          <t>twice megan thee stallion</t>
         </is>
       </c>
       <c r="J43">
@@ -2260,393 +2260,393 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Rank05</t>
+          <t>Rank07</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Charli xcx</t>
+          <t>starfall</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brat</t>
+          <t>alone tonight</t>
         </is>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>0.5220062499999999</v>
+        <v>0.3771495156249999</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>charli xcx</t>
+          <t>starfall</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>brat</t>
+          <t>alone tonight</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>charli xcx</t>
+          <t>starfall</t>
         </is>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Rank01</t>
+          <t>Rank08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MJ Nebreda, Danny From Miami, Danny Daze</t>
+          <t>starfall</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Con Cariño</t>
+          <t>weeknight</t>
         </is>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.3205770882812499</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>mj nebreda danny from miami danny daze</t>
+          <t>starfall</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>con cariño</t>
+          <t>weeknight</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>mj nebreda danny from miami danny daze</t>
+          <t>starfall</t>
         </is>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Rank02</t>
+          <t>Rank09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Oklou</t>
+          <t>keshi</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Choke Enough</t>
+          <t>WANTCHU</t>
         </is>
       </c>
       <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>0.2724905250390625</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>keshi</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>wantchu</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>keshi</t>
+        </is>
+      </c>
+      <c r="J46">
         <v>2</v>
-      </c>
-      <c r="E46">
-        <v>19</v>
-      </c>
-      <c r="F46">
-        <v>0.85</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>oklou</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>choke enough</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>oklou</t>
-        </is>
-      </c>
-      <c r="J46">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rank03</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NEW YORK</t>
+          <t>Oklou</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Rapstar*</t>
+          <t>Choke Enough</t>
         </is>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>0.7224999999999999</v>
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>new york</t>
+          <t>oklou</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>rapstar</t>
+          <t>choke enough</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>new york</t>
+          <t>oklou</t>
         </is>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Rank04</t>
+          <t>Rank02</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bassvictim</t>
+          <t>FKA twigs</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Basspunk</t>
+          <t>Eusexua</t>
         </is>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>0.6141249999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>bassvictim</t>
+          <t>fka twigs</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>basspunk</t>
+          <t>eusexua</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>bassvictim</t>
+          <t>fka twigs</t>
         </is>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Rank05</t>
+          <t>Rank03</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Addison Rae</t>
+          <t>Erika De Casier</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Diet Pepsi</t>
+          <t>Lifetime</t>
         </is>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>0.5220062499999999</v>
+        <v>0.7224999999999999</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>addison rae</t>
+          <t>erika de casier</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>diet pepsi</t>
+          <t>lifetime</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>addison rae</t>
+          <t>erika de casier</t>
         </is>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Rank06</t>
+          <t>Rank04</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Nia Archives</t>
+          <t>FKA twigs</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Silence Is Loud</t>
+          <t>Eusexua Afterglow</t>
         </is>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F50">
-        <v>0.4437053124999999</v>
+        <v>0.6141249999999999</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>nia archives</t>
+          <t>fka twigs</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>silence is loud</t>
+          <t>eusexua afterglow</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>nia archives</t>
+          <t>fka twigs</t>
         </is>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Rank07</t>
+          <t>Rank05</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Caroline Polacheck</t>
+          <t>Nourished by Time</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Desire, I Want To Turn Into You: Everasking Edition</t>
+          <t>The Passionate Ones</t>
         </is>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>0.3771495156249999</v>
+        <v>0.5220062499999999</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>caroline polachek</t>
+          <t>nourished by time</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>desire i want to turn into you everasking edition</t>
+          <t>the passionate ones</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>caroline polachek</t>
+          <t>nourished by time</t>
         </is>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rank08</t>
+          <t>Rank06</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SPIRIT OF THE BEEHIVE</t>
+          <t>Blush</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>YOU’LL HAVE TO LOSE SOMETHING</t>
+          <t>Kevin Abstract</t>
         </is>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F52">
-        <v>0.3205770882812499</v>
+        <v>0.4437053124999999</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>spirit of the beehive</t>
+          <t>blush</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>youll have to lose something</t>
+          <t>kevin abstract</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>spirit of the beehive</t>
+          <t>blush</t>
         </is>
       </c>
       <c r="J52">
@@ -2656,41 +2656,41 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Rank09</t>
+          <t>Rank07</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rosalia, Ralphie Choo</t>
+          <t>Nerve Campbell</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Omega (feat.Ralphine Choo)</t>
+          <t>trichomes 2</t>
         </is>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>0.2724905250390625</v>
+        <v>0.3771495156249999</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>rosalia ralphie choo</t>
+          <t>nerve campbell</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>omega featralphine choo</t>
+          <t>trichomes 2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>rosalia ralphie choo</t>
+          <t>nerve campbell</t>
         </is>
       </c>
       <c r="J53">
@@ -2700,85 +2700,85 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Rank10</t>
+          <t>Rank08</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bladee, Ecco 2K, Thaiboy Digital</t>
+          <t>Pinkpantheress</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TL;DR</t>
+          <t>Fancy That</t>
         </is>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F54">
-        <v>0.2316169462832031</v>
+        <v>0.3205770882812499</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>bladee ecco 2k thaiboy digital</t>
+          <t>pinkpantheress</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>tldr</t>
+          <t>fancy that</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>bladee ecco 2k thaiboy digital</t>
+          <t>pinkpantheress</t>
         </is>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Rank11</t>
+          <t>Rank09</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>Rochelle Jordan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>Through The Wall</t>
         </is>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F55">
-        <v>0.1968744043407226</v>
+        <v>0.2724905250390625</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>newjeans</t>
+          <t>rochelle jordan</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>supernatural</t>
+          <t>through the wall</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>newjeans</t>
+          <t>rochelle jordan</t>
         </is>
       </c>
       <c r="J55">
@@ -2788,41 +2788,41 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Rank01</t>
+          <t>Rank10</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>The Maria's</t>
+          <t>Blood Orange</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Submarine</t>
+          <t>Essex Honey</t>
         </is>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.2316169462832031</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>the marias</t>
+          <t>blood orange</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>submarine</t>
+          <t>essex honey</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>the marias</t>
+          <t>blood orange</t>
         </is>
       </c>
       <c r="J56">
@@ -2832,85 +2832,85 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Rank02</t>
+          <t>Rank11</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lizzy McAlpine</t>
+          <t>Playboi Carti</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Older (and Wiser)</t>
+          <t>MUSIC</t>
         </is>
       </c>
       <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57">
         <v>2</v>
       </c>
-      <c r="E57">
-        <v>19</v>
-      </c>
       <c r="F57">
-        <v>0.85</v>
+        <v>0.1968744043407226</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>lizzy mcalpine</t>
+          <t>playboi carti</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>older and wiser</t>
+          <t>music</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>lizzy mcalpine</t>
+          <t>playboi carti</t>
         </is>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Rank03</t>
+          <t>Rank12</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fcukers</t>
+          <t>Bb Trickz</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Baggy$$</t>
+          <t>80’z</t>
         </is>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E58">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0.7224999999999999</v>
+        <v>0.1673432436896142</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>fcukers</t>
+          <t>bb trickz</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>baggy$$</t>
+          <t>80z</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>fcukers</t>
+          <t>bb trickz</t>
         </is>
       </c>
       <c r="J58">
@@ -2920,129 +2920,129 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Rank04</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Molly Lewis</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>On The Lips</t>
+          <t>Bleeds</t>
         </is>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>0.6141249999999999</v>
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>molly lewis</t>
+          <t>wednesday</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>on the lips</t>
+          <t>bleeds</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>molly lewis</t>
+          <t>wednesday</t>
         </is>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Rank05</t>
+          <t>Rank02</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Magdalena Bay</t>
+          <t>They Are Gutting A Body of Water</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Imaginal Disk</t>
+          <t>LOTTO</t>
         </is>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F60">
-        <v>0.5220062499999999</v>
+        <v>0.85</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>magdalena bay</t>
+          <t>they are gutting a body of water</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>imaginal disk</t>
+          <t>lotto</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>magdalena bay</t>
+          <t>they are gutting a body of water</t>
         </is>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rank06</t>
+          <t>Rank03</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cigarettes After Sex</t>
+          <t>Greet Death</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>X’s</t>
+          <t>Die in Love</t>
         </is>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>0.4437053124999999</v>
+        <v>0.7224999999999999</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>cigarettes after sex</t>
+          <t>greet death</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>xs</t>
+          <t>die in love</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cigarettes after sex</t>
+          <t>greet death</t>
         </is>
       </c>
       <c r="J61">
@@ -3052,41 +3052,41 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Rank07</t>
+          <t>Rank04</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Clairo</t>
+          <t>First Day Back</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Charm</t>
+          <t>Forward</t>
         </is>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F62">
-        <v>0.3771495156249999</v>
+        <v>0.6141249999999999</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>clairo</t>
+          <t>first day back</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>charm</t>
+          <t>forward</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>clairo</t>
+          <t>first day back</t>
         </is>
       </c>
       <c r="J62">
@@ -3096,41 +3096,41 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Rank01</t>
+          <t>Rank05</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Otomekaiga</t>
+          <t>villagerr</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Kyoukai</t>
+          <t>Tear your heart out</t>
         </is>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.5220062499999999</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>otomekaiga</t>
+          <t>villagerr</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>kyoukai</t>
+          <t>tear your heart out</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>otomekaiga</t>
+          <t>villagerr</t>
         </is>
       </c>
       <c r="J63">
@@ -3140,41 +3140,41 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Rank02</t>
+          <t>Rank06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Autumn Rhythm</t>
+          <t>shallowater</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Nothing Gold</t>
+          <t>God’s Gonna Give You a Million Dollars</t>
         </is>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E64">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F64">
-        <v>0.85</v>
+        <v>0.4437053124999999</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>autumn rhythm</t>
+          <t>shallowater</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>nothing gold</t>
+          <t>gods gonna give you a million dollars</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>autumn rhythm</t>
+          <t>shallowater</t>
         </is>
       </c>
       <c r="J64">
@@ -3184,85 +3184,85 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rank01</t>
+          <t>Rank07</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Adrianne Lenker</t>
+          <t>Rocket</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bright Future</t>
+          <t>R is for Rocket</t>
         </is>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.3771495156249999</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>adrianne lenker</t>
+          <t>rocket</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>bright future</t>
+          <t>r is for rocket</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>adrianne lenker</t>
+          <t>rocket</t>
         </is>
       </c>
       <c r="J65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Rank02</t>
+          <t>Rank08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Joey Valence &amp; Brae</t>
+          <t>Momma</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NO HANDS</t>
+          <t>Welcome to My Blue Sky</t>
         </is>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>0.85</v>
+        <v>0.3205770882812499</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>joey valence  brae</t>
+          <t>momma</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>no hands</t>
+          <t>welcome to my blue sky</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>joey valence  brae</t>
+          <t>momma</t>
         </is>
       </c>
       <c r="J66">
@@ -3272,129 +3272,129 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Rank03</t>
+          <t>Rank09</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tyler, the Creator</t>
+          <t>Teethe</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CHROMAKOPIA</t>
+          <t>Magic of the Sale</t>
         </is>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E67">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F67">
-        <v>0.7224999999999999</v>
+        <v>0.2724905250390625</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>tyler the creator</t>
+          <t>teethe</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>chromakopia</t>
+          <t>magic of the sale</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>tyler the creator</t>
+          <t>teethe</t>
         </is>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Rank04</t>
+          <t>Rank10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MJ Lenderman</t>
+          <t>Dove Ellis</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Manning Fireworks</t>
+          <t>Blizzard</t>
         </is>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>0.6141249999999999</v>
+        <v>0.2316169462832031</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>mj lenderman</t>
+          <t>dove ellis</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>manning fireworks</t>
+          <t>blizzard</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>mj lenderman</t>
+          <t>dove ellis</t>
         </is>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rank05</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hinds</t>
+          <t>earth 2 tiffany</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VIVA HINDS</t>
+          <t>get better</t>
         </is>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>0.5220062499999999</v>
+        <v>1</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>hinds</t>
+          <t>earth 2 tiffany</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>viva hinds</t>
+          <t>get better</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>hinds</t>
+          <t>earth 2 tiffany</t>
         </is>
       </c>
       <c r="J69">
@@ -3404,41 +3404,41 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Rank06</t>
+          <t>Rank02</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>IDLES</t>
+          <t>Shelly</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TANGK</t>
+          <t>Shelly 2</t>
         </is>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F70">
-        <v>0.4437053124999999</v>
+        <v>0.85</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>idles</t>
+          <t>shelly</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>tangk</t>
+          <t>shelly 2</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>idles</t>
+          <t>shelly</t>
         </is>
       </c>
       <c r="J70">
@@ -3448,41 +3448,41 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Rank07</t>
+          <t>Rank03</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Doechii</t>
+          <t>Blondshell</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Alligator Bites Never Heal</t>
+          <t>If You Asked For A Picture</t>
         </is>
       </c>
       <c r="D71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>0.3771495156249999</v>
+        <v>0.7224999999999999</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>doechii</t>
+          <t>blondshell</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>alligator bites never heal</t>
+          <t>if you asked for a picture</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>doechii</t>
+          <t>blondshell</t>
         </is>
       </c>
       <c r="J71">
@@ -3492,41 +3492,41 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Rank08</t>
+          <t>Rank04</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>The Lemon Twigs</t>
+          <t>nep</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A Dream is All we Know</t>
+          <t>Girls On TV</t>
         </is>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F72">
-        <v>0.3205770882812499</v>
+        <v>0.6141249999999999</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>the lemon twigs</t>
+          <t>nep</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>a dream is all we know</t>
+          <t>girls on tv</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>the lemon twigs</t>
+          <t>nep</t>
         </is>
       </c>
       <c r="J72">
@@ -3536,41 +3536,41 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Rank09</t>
+          <t>Rank05</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Waxahatchee (ft. MJ Lenderman)</t>
+          <t>Harriet Dagnall</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Right Back to it</t>
+          <t>Two Doors Down</t>
         </is>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E73">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F73">
-        <v>0.2724905250390625</v>
+        <v>0.5220062499999999</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>waxahatchee ft mj lenderman</t>
+          <t>harriet dagnall</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>right back to it</t>
+          <t>two doors down</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>waxahatchee ft mj lenderman</t>
+          <t>harriet dagnall</t>
         </is>
       </c>
       <c r="J73">
@@ -3580,85 +3580,85 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Rank10</t>
+          <t>Rank06</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mk.Gee</t>
+          <t>The Mountain Goats</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Two Star and the Dream Police</t>
+          <t>Through This Fire Acress From Peter Balkan</t>
         </is>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F74">
-        <v>0.2316169462832031</v>
+        <v>0.4437053124999999</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>mkgee</t>
+          <t>the mountain goats</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>two star and the dream police</t>
+          <t>through this fire acress from peter balkan</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>mkgee</t>
+          <t>the mountain goats</t>
         </is>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Rank11</t>
+          <t>Rank07</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mount Eerie</t>
+          <t>Susannah Joffe</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Night Palace</t>
+          <t>Horses Can't Outrun Me</t>
         </is>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>0.1968744043407226</v>
+        <v>0.3771495156249999</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>mount eerie</t>
+          <t>susannah joffe</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>night palace</t>
+          <t>horses cant outrun me</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>mount eerie</t>
+          <t>susannah joffe</t>
         </is>
       </c>
       <c r="J75">
@@ -3668,41 +3668,41 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rank12</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Gordie Greep</t>
+          <t>Mall Grab</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>The New Sound</t>
+          <t>You Thought</t>
         </is>
       </c>
       <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
         <v>12</v>
       </c>
-      <c r="E76">
-        <v>9</v>
-      </c>
       <c r="F76">
-        <v>0.1673432436896142</v>
+        <v>1</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>gordie greep</t>
+          <t>mall grab</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>the new sound</t>
+          <t>you thought</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>gordie greep</t>
+          <t>mall grab</t>
         </is>
       </c>
       <c r="J76">
@@ -3712,41 +3712,41 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Rank13</t>
+          <t>Rank02</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Amyl and the Sniffers</t>
+          <t>Best I’ve Found</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cartoon Darkness</t>
+          <t>Yes Boone</t>
         </is>
       </c>
       <c r="D77">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F77">
-        <v>0.1422417571361721</v>
+        <v>0.85</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>amyl and the sniffers</t>
+          <t>best ive found</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>cartoon darkness</t>
+          <t>yes boone</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>amyl and the sniffers</t>
+          <t>best ive found</t>
         </is>
       </c>
       <c r="J77">
@@ -3756,217 +3756,217 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Rank14</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Kendrick Lamar</t>
+          <t>Wolf Alice</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GNX</t>
+          <t>The Clearing</t>
         </is>
       </c>
       <c r="D78">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F78">
-        <v>0.1209054935657463</v>
+        <v>1</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>kendrick lamar</t>
+          <t>wolf alice</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>gnx</t>
+          <t>the clearing</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>kendrick lamar</t>
+          <t>wolf alice</t>
         </is>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Rank01</t>
+          <t>Rank02</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JPEGMAFIA</t>
+          <t>Not For Radio</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>I LAY DOWN MY LIFE FOR YOU</t>
+          <t>Melt</t>
         </is>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>jpegmafia</t>
+          <t>not for radio</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>i lay down my life for you</t>
+          <t>melt</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>jpegmafia</t>
+          <t>not for radio</t>
         </is>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Rank02</t>
+          <t>Rank03</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Adrianne Lenker</t>
+          <t>O &amp; The Mo</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Bright Future</t>
+          <t>Make Way For The Sun</t>
         </is>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F80">
-        <v>0.85</v>
+        <v>0.7224999999999999</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>adrianne lenker</t>
+          <t>o  the mo</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>bright future</t>
+          <t>make way for the sun</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>adrianne lenker</t>
+          <t>o  the mo</t>
         </is>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Rank03</t>
+          <t>Rank04</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Charli xcx</t>
+          <t>The Favors</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BRAT</t>
+          <t>The Dream</t>
         </is>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F81">
-        <v>0.7224999999999999</v>
+        <v>0.6141249999999999</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>charli xcx</t>
+          <t>the favors</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>brat</t>
+          <t>the dream</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>charli xcx</t>
+          <t>the favors</t>
         </is>
       </c>
       <c r="J81">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Rank04</t>
+          <t>Rank05</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Damien Jurado</t>
+          <t>Sword II</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Far Out To Where We Were Then: The Maraqopa Demos</t>
+          <t>Electric House</t>
         </is>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F82">
-        <v>0.6141249999999999</v>
+        <v>0.5220062499999999</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>damien jurado</t>
+          <t>sword ii</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>far out to where we were then the maraqopa demos</t>
+          <t>electric house</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>damien jurado</t>
+          <t>sword ii</t>
         </is>
       </c>
       <c r="J82">
@@ -3976,85 +3976,85 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Rank01</t>
+          <t>Rank06</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bladee</t>
+          <t>FKA twigs</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cold Visions</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.4437053124999999</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>bladee</t>
+          <t>fka twigs</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>cold visions</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>bladee</t>
+          <t>fka twigs</t>
         </is>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Rank02</t>
+          <t>Rank07</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fakemink</t>
+          <t>L’Imperatrice</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Wild One</t>
+          <t>chrysalis</t>
         </is>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F84">
-        <v>0.85</v>
+        <v>0.3771495156249999</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>fakemink</t>
+          <t>limperatrice</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>wild one</t>
+          <t>chrysalis</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>fakemink</t>
+          <t>limperatrice</t>
         </is>
       </c>
       <c r="J84">
@@ -4064,41 +4064,41 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Rank03</t>
+          <t>Rank08</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tomcbumpz</t>
+          <t>PARTYOF2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GOOD LISTENER</t>
+          <t>we owe you an explanation</t>
         </is>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E85">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>0.7224999999999999</v>
+        <v>0.3205770882812499</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>tomcbumpz</t>
+          <t>partyof2</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>good listener</t>
+          <t>we owe you an explanation</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>tomcbumpz</t>
+          <t>partyof2</t>
         </is>
       </c>
       <c r="J85">
@@ -4108,173 +4108,173 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Rank04</t>
+          <t>Rank09</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GG12</t>
+          <t>Elsie Lange</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NIRVANA_RMX</t>
+          <t>The Normal Discontents of Living</t>
         </is>
       </c>
       <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86">
         <v>4</v>
       </c>
-      <c r="E86">
-        <v>17</v>
-      </c>
       <c r="F86">
-        <v>0.6141249999999999</v>
+        <v>0.2724905250390625</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>gg12</t>
+          <t>elsie lange</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>nirvanarmx</t>
+          <t>the normal discontents of living</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>gg12</t>
+          <t>elsie lange</t>
         </is>
       </c>
       <c r="J86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Rank05</t>
+          <t>Rank10</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GG12</t>
+          <t>Folk Bitch Trio</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GG_BLENDS2</t>
+          <t>Now Would Be a Good Time</t>
         </is>
       </c>
       <c r="D87">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E87">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>0.5220062499999999</v>
+        <v>0.2316169462832031</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>gg12</t>
+          <t>folk bitch trio</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>ggblends2</t>
+          <t>now would be a good time</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>gg12</t>
+          <t>folk bitch trio</t>
         </is>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Rank06</t>
+          <t>Rank11</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Charli XCX</t>
+          <t>Phoebe Rings</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Brat and it's completely different but also still brat</t>
+          <t>Aseurai</t>
         </is>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>0.4437053124999999</v>
+        <v>0.1968744043407226</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>charli xcx</t>
+          <t>phoebe rings</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>brat</t>
+          <t>aseurai</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>charli xcx</t>
+          <t>phoebe rings</t>
         </is>
       </c>
       <c r="J88">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Rank07</t>
+          <t>Rank12</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pluko</t>
+          <t>Lady Gaga</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Bleach [Hi</t>
+          <t>Mayhem</t>
         </is>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>0.3771495156249999</v>
+        <v>0.1673432436896142</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>pluko</t>
+          <t>lady gaga</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>bleach hi</t>
+          <t>mayhem</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>pluko</t>
+          <t>lady gaga</t>
         </is>
       </c>
       <c r="J89">
@@ -4284,129 +4284,129 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Rank08</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>xaviersobased</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>with 2 (hosted by d9lton)</t>
+          <t>Bleeds</t>
         </is>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>0.3205770882812499</v>
+        <v>1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>xaviersobased</t>
+          <t>wednesday</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>with 2 hosted by d9lton</t>
+          <t>bleeds</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>xaviersobased</t>
+          <t>wednesday</t>
         </is>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Rank09</t>
+          <t>Rank02</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Corey Lingo</t>
+          <t>Bratmobile</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>For What It's Worth</t>
+          <t>The Real Janelle and The Peel Session</t>
         </is>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E91">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F91">
-        <v>0.2724905250390625</v>
+        <v>0.85</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>corey lingo</t>
+          <t>bratmobile</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>for what its worth</t>
+          <t>the real janelle and the peel session</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>corey lingo</t>
+          <t>bratmobile</t>
         </is>
       </c>
       <c r="J91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Rank10</t>
+          <t>Rank03</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SahBabii</t>
+          <t>Billy Tibbals</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Saaheem</t>
+          <t>Rock n Roll Kids</t>
         </is>
       </c>
       <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
         <v>10</v>
       </c>
-      <c r="E92">
-        <v>11</v>
-      </c>
       <c r="F92">
-        <v>0.2316169462832031</v>
+        <v>0.7224999999999999</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>sahbabii</t>
+          <t>billy tibbals</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>saaheem</t>
+          <t>rock n roll kids</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sahbabii</t>
+          <t>billy tibbals</t>
         </is>
       </c>
       <c r="J92">
@@ -4416,41 +4416,41 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rank11</t>
+          <t>Rank01</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lucki</t>
+          <t>Fontaines D.C.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Gemini!</t>
+          <t>Romance (Deluxe Edition)</t>
         </is>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>0.1968744043407226</v>
+        <v>1</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>lucki</t>
+          <t>fontaines dc</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>gemini</t>
+          <t>romance deluxe edition</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>lucki</t>
+          <t>fontaines dc</t>
         </is>
       </c>
       <c r="J93">
@@ -4460,129 +4460,129 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Rank12</t>
+          <t>Rank02</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mk.gee</t>
+          <t>Bon Iver</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Two Star &amp; The Dream Police</t>
+          <t>SABLE, fABLE</t>
         </is>
       </c>
       <c r="D94">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F94">
-        <v>0.1673432436896142</v>
+        <v>0.85</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>mkgee</t>
+          <t>bon iver</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>two star and the dream police</t>
+          <t>sable fable</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>mkgee</t>
+          <t>bon iver</t>
         </is>
       </c>
       <c r="J94">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Rank13</t>
+          <t>Rank03</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mk.gee</t>
+          <t>Hayley Williams</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Rockman</t>
+          <t>Parachute</t>
         </is>
       </c>
       <c r="D95">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F95">
-        <v>0.1422417571361721</v>
+        <v>0.7224999999999999</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>mkgee</t>
+          <t>hayley williams</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>rockman</t>
+          <t>parachute</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>mkgee</t>
+          <t>hayley williams</t>
         </is>
       </c>
       <c r="J95">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Rank14</t>
+          <t>Rank04</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Swapa</t>
+          <t>Shame</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Armageddon</t>
+          <t>Cutthroat</t>
         </is>
       </c>
       <c r="D96">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F96">
-        <v>0.1209054935657463</v>
+        <v>0.6141249999999999</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>swapa</t>
+          <t>shame</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>armageddon</t>
+          <t>cutthroat</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>swapa</t>
+          <t>shame</t>
         </is>
       </c>
       <c r="J96">
@@ -4592,129 +4592,129 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Rank15</t>
+          <t>Rank05</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Wavedash</t>
+          <t>Jane Remover</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Dancing with your eyes closed</t>
         </is>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F97">
-        <v>0.1027696695308843</v>
+        <v>0.5220062499999999</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>wavedash</t>
+          <t>jane remover</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>tempo</t>
+          <t>dancing with your eyes closed</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>wavedash</t>
+          <t>jane remover</t>
         </is>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rank16</t>
+          <t>Rank06</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>Pinkpantheress</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Promise</t>
+          <t>Fancy That</t>
         </is>
       </c>
       <c r="D98">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F98">
-        <v>0.08735421910125167</v>
+        <v>0.4437053124999999</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>esp</t>
+          <t>pinkpantheress</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>promise</t>
+          <t>fancy that</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>esp</t>
+          <t>pinkpantheress</t>
         </is>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Rank 17</t>
+          <t>Rank07</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SgLilyy</t>
+          <t>Kendrick Lamar</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>rp privateserver</t>
+          <t>reincarnated</t>
         </is>
       </c>
       <c r="D99">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F99">
-        <v>0.07425108623606391</v>
+        <v>0.3771495156249999</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>sglilyy</t>
+          <t>kendrick lamar</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>rp privateserver</t>
+          <t>reincarnated</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sglilyy</t>
+          <t>kendrick lamar</t>
         </is>
       </c>
       <c r="J99">
@@ -4724,969 +4724,45 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rank18</t>
+          <t>Rank08</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Swoopy &amp; pradaaslife</t>
+          <t>Ninajirachi</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Treasure Hunt 2</t>
+          <t>I Love My Computer</t>
         </is>
       </c>
       <c r="D100">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F100">
-        <v>0.06311342330065432</v>
+        <v>0.3205770882812499</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>swoopy  pradaaslife</t>
+          <t>ninajirachi</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>treasure hunt 2</t>
+          <t>i love my computer</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>swoopy  pradaaslife</t>
+          <t>ninajirachi</t>
         </is>
       </c>
       <c r="J100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Rank19</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Kiryano</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>senescence</t>
-        </is>
-      </c>
-      <c r="D101">
-        <v>19</v>
-      </c>
-      <c r="E101">
         <v>2</v>
-      </c>
-      <c r="F101">
-        <v>0.05364640980555618</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>kiryano</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>senescence</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>kiryano</t>
-        </is>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Rank20</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>YT</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Black &amp; Tan</t>
-        </is>
-      </c>
-      <c r="D102">
-        <v>20</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>0.04559944833472275</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>yt</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>black and tan</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>yt</t>
-        </is>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Rank01</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Gawshock</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Cool Drink</t>
-        </is>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>20</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>gawshock</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>cool drink</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>gawshock</t>
-        </is>
-      </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Rank02</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Stoneyard</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Twenty Ft. Tall</t>
-        </is>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104">
-        <v>19</v>
-      </c>
-      <c r="F104">
-        <v>0.85</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>stoneyard</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>twenty ft tall</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>stoneyard</t>
-        </is>
-      </c>
-      <c r="J104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Rank03</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Nala Sinephro</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Continuum 1</t>
-        </is>
-      </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-      <c r="E105">
-        <v>18</v>
-      </c>
-      <c r="F105">
-        <v>0.7224999999999999</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>nala sinephro</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>continuum 1</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>nala sinephro</t>
-        </is>
-      </c>
-      <c r="J105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Rank04</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Stoneyard</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Be Strangers</t>
-        </is>
-      </c>
-      <c r="D106">
-        <v>4</v>
-      </c>
-      <c r="E106">
-        <v>17</v>
-      </c>
-      <c r="F106">
-        <v>0.6141249999999999</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>stoneyard</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>be strangers</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>stoneyard</t>
-        </is>
-      </c>
-      <c r="J106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Rank05</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>toe</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>LONELINESS WILL SHINE</t>
-        </is>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107">
-        <v>16</v>
-      </c>
-      <c r="F107">
-        <v>0.5220062499999999</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>toe</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>loneliness will shine</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>toe</t>
-        </is>
-      </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Rank06</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Tacoma Radar</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>It's Getting Dark</t>
-        </is>
-      </c>
-      <c r="D108">
-        <v>6</v>
-      </c>
-      <c r="E108">
-        <v>15</v>
-      </c>
-      <c r="F108">
-        <v>0.4437053124999999</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>tacoma radar</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>its getting dark</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>tacoma radar</t>
-        </is>
-      </c>
-      <c r="J108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Rank01</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Fontaines D.C.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Starburster</t>
-        </is>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>20</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>fontaines dc</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>starburster</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>fontaines dc</t>
-        </is>
-      </c>
-      <c r="J109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Rank02</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Fontaines D.C.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Favourite</t>
-        </is>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>19</v>
-      </c>
-      <c r="F110">
-        <v>0.85</v>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>fontaines dc</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>favourite</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>fontaines dc</t>
-        </is>
-      </c>
-      <c r="J110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Rank03</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>MJ Lenderman</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>She's Leaving You</t>
-        </is>
-      </c>
-      <c r="D111">
-        <v>3</v>
-      </c>
-      <c r="E111">
-        <v>18</v>
-      </c>
-      <c r="F111">
-        <v>0.7224999999999999</v>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>mj lenderman</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>shes leaving you</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>mj lenderman</t>
-        </is>
-      </c>
-      <c r="J111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Rank04</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Waxahatchee, MJ Lenderman</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Right Back to It</t>
-        </is>
-      </c>
-      <c r="D112">
-        <v>4</v>
-      </c>
-      <c r="E112">
-        <v>17</v>
-      </c>
-      <c r="F112">
-        <v>0.6141249999999999</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>waxahatchee mj lenderman</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>right back to it</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>waxahatchee mj lenderman</t>
-        </is>
-      </c>
-      <c r="J112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Rank05</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>The Cure</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Alone</t>
-        </is>
-      </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-      <c r="E113">
-        <v>16</v>
-      </c>
-      <c r="F113">
-        <v>0.5220062499999999</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>the cure</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>alone</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>the cure</t>
-        </is>
-      </c>
-      <c r="J113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Rank06</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Empire of the Sun</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Cherry Blossom</t>
-        </is>
-      </c>
-      <c r="D114">
-        <v>6</v>
-      </c>
-      <c r="E114">
-        <v>15</v>
-      </c>
-      <c r="F114">
-        <v>0.4437053124999999</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>empire of the sun</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>cherry blossom</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>empire of the sun</t>
-        </is>
-      </c>
-      <c r="J114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Rank07</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Empire of the Sun</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Happy Like You</t>
-        </is>
-      </c>
-      <c r="D115">
-        <v>7</v>
-      </c>
-      <c r="E115">
-        <v>14</v>
-      </c>
-      <c r="F115">
-        <v>0.3771495156249999</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>empire of the sun</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>happy like you</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>empire of the sun</t>
-        </is>
-      </c>
-      <c r="J115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Rank08</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Declan McKenna</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Champagne</t>
-        </is>
-      </c>
-      <c r="D116">
-        <v>8</v>
-      </c>
-      <c r="E116">
-        <v>13</v>
-      </c>
-      <c r="F116">
-        <v>0.3205770882812499</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>declan mckenna</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>champagne</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>declan mckenna</t>
-        </is>
-      </c>
-      <c r="J116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Rank09</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Declan McKenna</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>That's Life</t>
-        </is>
-      </c>
-      <c r="D117">
-        <v>9</v>
-      </c>
-      <c r="E117">
-        <v>12</v>
-      </c>
-      <c r="F117">
-        <v>0.2724905250390625</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>declan mckenna</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>thats life</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>declan mckenna</t>
-        </is>
-      </c>
-      <c r="J117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Rank10</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Father John Misty</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>I Guess Time Just Makes Fools of Us All</t>
-        </is>
-      </c>
-      <c r="D118">
-        <v>10</v>
-      </c>
-      <c r="E118">
-        <v>11</v>
-      </c>
-      <c r="F118">
-        <v>0.2316169462832031</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>father john misty</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>i guess time just makes fools of us all</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>father john misty</t>
-        </is>
-      </c>
-      <c r="J118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Rank11</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Twenty One Pilots</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>The Line</t>
-        </is>
-      </c>
-      <c r="D119">
-        <v>11</v>
-      </c>
-      <c r="E119">
-        <v>10</v>
-      </c>
-      <c r="F119">
-        <v>0.1968744043407226</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>twenty one pilots</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>the line</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>twenty one pilots</t>
-        </is>
-      </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Rank12</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Billie Eilish</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>CHIHIRO</t>
-        </is>
-      </c>
-      <c r="D120">
-        <v>12</v>
-      </c>
-      <c r="E120">
-        <v>9</v>
-      </c>
-      <c r="F120">
-        <v>0.1673432436896142</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>billie eilish</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>chihiro</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>billie eilish</t>
-        </is>
-      </c>
-      <c r="J120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Rank13</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Adeline Hotel</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Whodunnit</t>
-        </is>
-      </c>
-      <c r="D121">
-        <v>13</v>
-      </c>
-      <c r="E121">
-        <v>8</v>
-      </c>
-      <c r="F121">
-        <v>0.1422417571361721</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>adeline hotel</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>whodunnit</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>adeline hotel</t>
-        </is>
-      </c>
-      <c r="J121">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
